--- a/LR3/92.xlsx
+++ b/LR3/92.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IT\Дз по ИТ\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79196\Desktop\ИТ\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F7C26F-58A6-4483-BADD-60048EA7A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0188C9-F343-43E9-97A6-ECA3C14F6951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E67452D-B42B-4A17-B44C-645558D96547}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{5E67452D-B42B-4A17-B44C-645558D96547}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -152,47 +152,48 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Пени за один день, руб.</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма оплаты, руб.</t>
+    <t xml:space="preserve">Максимальный срок просрочки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальнная сумма просрочки </t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
+  </si>
+  <si>
+    <t>Общая сумма</t>
+  </si>
+  <si>
+    <t>Штраф</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Просрочка</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +206,27 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -225,25 +247,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{A956641A-506C-413B-AC28-2D6BD5C9EB4A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,1680 +587,1680 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D94C37-CB8B-4599-B4B1-AB35136A6C63}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>A1</f>
         <v>92</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f>$A$1*1.1</f>
         <v>101.2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>9310.4</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f>IF(F3 &gt; G3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <f>E3+J3</f>
         <v>9310.4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f>C3-0.5</f>
         <v>91.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>101.2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>9259.8000000000011</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H38" si="2">IF(F4 &gt; G4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J37" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>9259.8000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>91</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>9209.2000000000007</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <f t="shared" si="4"/>
         <v>9209.2000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f t="shared" si="6"/>
         <v>90.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>9158.6</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <f t="shared" si="4"/>
         <v>9158.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>9108</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <f t="shared" si="4"/>
         <v>9108</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" si="6"/>
         <v>89.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>9057.4</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f t="shared" si="4"/>
         <v>9057.4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>9006.8000000000011</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <f t="shared" si="4"/>
         <v>9006.8000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f t="shared" si="6"/>
         <v>88.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>8956.2000000000007</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>8956.2000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>8905.6</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <f t="shared" si="4"/>
         <v>8905.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>8855</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
         <v>8865</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>8804.4</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <f t="shared" si="4"/>
         <v>8824.4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f t="shared" si="6"/>
         <v>86.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>8753.8000000000011</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <f t="shared" si="4"/>
         <v>8783.8000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>8703.2000000000007</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="3">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <f t="shared" si="4"/>
         <v>8743.2000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>8652.6</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
         <v>8702.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>8602</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <f t="shared" si="4"/>
         <v>8662</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <f t="shared" si="6"/>
         <v>84.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>8551.4</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="3">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <f t="shared" si="4"/>
         <v>8621.4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>8500.8000000000011</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
         <v>8580.8000000000011</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <f t="shared" si="6"/>
         <v>83.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>8450.2000000000007</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
         <v>8540.2000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>8399.6</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>8499.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>8349</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <f t="shared" si="4"/>
         <v>8459</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>8298.4</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <f t="shared" si="4"/>
         <v>8418.4</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <f t="shared" si="6"/>
         <v>81.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>8247.8000000000011</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <f t="shared" si="4"/>
         <v>8377.8000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>8197.2000000000007</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <f t="shared" si="4"/>
         <v>8337.2000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <f t="shared" si="6"/>
         <v>80.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>8146.6</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <f t="shared" si="4"/>
         <v>8296.6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>8096</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <f t="shared" si="4"/>
         <v>8256</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <f t="shared" si="6"/>
         <v>79.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>8045.4000000000005</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <f t="shared" si="4"/>
         <v>8215.4000000000015</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>7994.8</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="3">
         <f t="shared" si="4"/>
         <v>8174.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <f t="shared" si="6"/>
         <v>78.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>7944.2</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="3">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <f t="shared" si="4"/>
         <v>8134.2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>7893.6</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <f t="shared" si="4"/>
         <v>8093.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <f t="shared" si="6"/>
         <v>77.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>7843</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
         <f t="shared" si="4"/>
         <v>8053</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>7792.4000000000005</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3">
         <f t="shared" si="4"/>
         <v>8012.4000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <f t="shared" si="6"/>
         <v>76.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+      <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>7741.8</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
         <v>7971.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <f>$A$1*1.1/2</f>
         <v>50.6</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <f t="shared" si="1"/>
         <v>3845.6</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="3">
         <f t="shared" si="4"/>
         <v>4085.6</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <f t="shared" si="6"/>
         <v>75.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
         <v>50.6</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>3820.3</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="3">
         <f t="shared" si="4"/>
         <v>4070.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <f t="shared" si="9"/>
         <v>50.6</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>3795</v>
       </c>
-      <c r="F37" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="3">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="3">
         <f t="shared" si="4"/>
         <v>4055</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <f t="shared" si="6"/>
         <v>74.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <f t="shared" si="9"/>
         <v>50.6</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <f t="shared" si="1"/>
         <v>3769.7000000000003</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
         <f>I38*H38</f>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>4039.7000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3">
+        <v>42</v>
+      </c>
+      <c r="C40" s="5">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
         <v>291845</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
         <f>SUM(C3:C38)/A38</f>
         <v>83.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1">
-        <f>MAX(K3:K38)</f>
-        <v>9310.4</v>
+        <v>40</v>
+      </c>
+      <c r="C43" s="3">
+        <f>MAX(J3:J38)</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
